--- a/Resources/CountriesforParcelFedex.xlsx
+++ b/Resources/CountriesforParcelFedex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Utils\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8284C48-006E-48F2-BE39-26AC36A86432}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6C5A20-E7A8-458E-9BAA-1B04427C1929}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{CB48AAAB-4F26-4BD8-B2AD-90D831C3FB22}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{CB48AAAB-4F26-4BD8-B2AD-90D831C3FB22}"/>
   </bookViews>
   <sheets>
     <sheet name="Countries" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6026" uniqueCount="1423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6031" uniqueCount="1423">
   <si>
     <t>AD</t>
   </si>
@@ -4678,8 +4678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4984DB7E-19ED-40BB-BDD9-B56C78C3F687}">
   <dimension ref="A1:F210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="C195" sqref="C195"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8902,7 +8902,7 @@
   <dimension ref="A1:B220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10676,8 +10676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB4470A-5944-4281-A0D5-53D591A80941}">
   <dimension ref="A1:D1694"/>
   <sheetViews>
-    <sheetView topLeftCell="A1498" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18794,8 +18794,8 @@
       <c r="C668" t="s">
         <v>1078</v>
       </c>
-      <c r="D668" t="e">
-        <v>#N/A</v>
+      <c r="D668" t="s">
+        <v>1078</v>
       </c>
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.3">
@@ -18822,8 +18822,8 @@
       <c r="C670" t="s">
         <v>1078</v>
       </c>
-      <c r="D670" t="e">
-        <v>#N/A</v>
+      <c r="D670" t="s">
+        <v>1078</v>
       </c>
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.3">
@@ -18836,8 +18836,8 @@
       <c r="C671" t="s">
         <v>1078</v>
       </c>
-      <c r="D671" t="e">
-        <v>#N/A</v>
+      <c r="D671" t="s">
+        <v>1078</v>
       </c>
     </row>
     <row r="672" spans="1:4" x14ac:dyDescent="0.3">
@@ -18850,8 +18850,8 @@
       <c r="C672" t="s">
         <v>1078</v>
       </c>
-      <c r="D672" t="e">
-        <v>#N/A</v>
+      <c r="D672" t="s">
+        <v>1078</v>
       </c>
     </row>
     <row r="673" spans="1:4" x14ac:dyDescent="0.3">
@@ -18864,8 +18864,8 @@
       <c r="C673" t="s">
         <v>1078</v>
       </c>
-      <c r="D673" t="e">
-        <v>#N/A</v>
+      <c r="D673" t="s">
+        <v>1078</v>
       </c>
     </row>
     <row r="674" spans="1:4" x14ac:dyDescent="0.3">
